--- a/Planilha_de_HQs.xlsx
+++ b/Planilha_de_HQs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Documentos\GitHub\EstanteDoLeitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C4AEFA-914E-435E-B2B5-0BBB9DCC7659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B121375-FBD4-4B9E-9ACD-D92BCBC2E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1365,7 +1365,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1645,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1694,7 +1694,7 @@
         <v>16</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
